--- a/artfynd/A 57180-2020.xlsx
+++ b/artfynd/A 57180-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83948609</v>
+        <v>100084927</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>88856</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>2008</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fyrflikig jordstjärna</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Geastrum quadrifidum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vilsta industriområde, V om, Srm</t>
+          <t>Skjulstagatan 17, Eskilstuna, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>583475.6238590981</v>
+        <v>583689.2563185043</v>
       </c>
       <c r="R2" t="n">
-        <v>6579331.079241654</v>
+        <v>6579215.892053389</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,7 +760,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +770,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -782,30 +787,25 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Blandskog, kalkberg</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86813759</v>
+        <v>83948609</v>
       </c>
       <c r="B3" t="n">
-        <v>103813</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +814,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220785</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vilsta industriområde, V om, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>583486.5729995462</v>
+        <v>583475.6238590981</v>
       </c>
       <c r="R3" t="n">
-        <v>6579251.726638615</v>
+        <v>6579331.079241654</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,7 +877,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -882,7 +887,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -901,7 +906,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Blandskog, kalkberg</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -919,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86813766</v>
+        <v>86813759</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>103813</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,25 +936,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>220785</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1036,10 +1041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100084927</v>
+        <v>86813766</v>
       </c>
       <c r="B5" t="n">
-        <v>88856</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,51 +1053,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2008</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fyrflikig jordstjärna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Geastrum quadrifidum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Skjulstagatan 17, Eskilstuna, Srm</t>
+          <t>Vilsta industriområde, V om, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>583689.2563185043</v>
+        <v>583486.5729995462</v>
       </c>
       <c r="R5" t="n">
-        <v>6579215.892053389</v>
+        <v>6579251.726638615</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,7 +1111,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1126,7 +1121,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1143,15 +1138,20 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 57180-2020.xlsx
+++ b/artfynd/A 57180-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100084927</v>
+        <v>83948609</v>
       </c>
       <c r="B2" t="n">
-        <v>88856</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,51 +692,46 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2008</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fyrflikig jordstjärna</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Geastrum quadrifidum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Skjulstagatan 17, Eskilstuna, Srm</t>
+          <t>Vilsta industriområde, V om, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>583689.2563185043</v>
+        <v>583475.6238590981</v>
       </c>
       <c r="R2" t="n">
-        <v>6579215.892053389</v>
+        <v>6579331.079241654</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -760,7 +755,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -770,7 +765,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -787,25 +782,30 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Blandskog, kalkberg</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Dan Åman</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83948609</v>
+        <v>86813759</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>103813</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,43 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>220785</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vilsta industriområde, V om, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>583475.6238590981</v>
+        <v>583486.5729995462</v>
       </c>
       <c r="R3" t="n">
-        <v>6579331.079241654</v>
+        <v>6579251.726638615</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -877,7 +872,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -887,7 +882,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -906,7 +901,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Blandskog, kalkberg</t>
+          <t>Blandskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86813759</v>
+        <v>86813766</v>
       </c>
       <c r="B4" t="n">
-        <v>103813</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,25 +931,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220785</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1041,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86813766</v>
+        <v>100084927</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>88856</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,41 +1048,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>2008</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fyrflikig jordstjärna</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Geastrum quadrifidum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Vilsta industriområde, V om, Srm</t>
+          <t>Skjulstagatan 17, Eskilstuna, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>583486.5729995462</v>
+        <v>583689.2563185043</v>
       </c>
       <c r="R5" t="n">
-        <v>6579251.726638615</v>
+        <v>6579215.892053389</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1111,7 +1116,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1121,7 +1126,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1138,20 +1143,15 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Dan Åman</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
